--- a/09_REVIEW/asking.xlsx
+++ b/09_REVIEW/asking.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Altium_Project\14_SLT\SLT_6U_SATELITE_EXP_HW\09_REVIEW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D795ACA-6442-497D-A1F3-51B2260523F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E99FF34F-7E79-4F06-BFAD-1B46951B3F58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{A1714678-9DB2-4210-A03B-BB0B591CC91E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{A1714678-9DB2-4210-A03B-BB0B591CC91E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>CAN</t>
   </si>
@@ -59,13 +59,19 @@
     <t>LED</t>
   </si>
   <si>
-    <t>LED loai gì, dòng bao nhiêu</t>
-  </si>
-  <si>
     <t>I2C sensor</t>
   </si>
   <si>
     <t>Số lượng I2C sensor, loại gì.</t>
+  </si>
+  <si>
+    <t>LED loai gì, dòng bao nhiêu, độ gợn bao nhiêu</t>
+  </si>
+  <si>
+    <t>USB camera</t>
+  </si>
+  <si>
+    <t>Số lượng usb camera, loại gì</t>
   </si>
 </sst>
 </file>
@@ -437,18 +443,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAB3CE5B-425A-48D6-8E0C-B920C36224F2}">
-  <dimension ref="B2:D9"/>
+  <dimension ref="B2:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="31.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="44.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -459,12 +466,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>4</v>
       </c>
@@ -472,20 +479,28 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>6</v>
       </c>
       <c r="C7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
         <v>7</v>
       </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
-        <v>9</v>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
